--- a/testreport/2 Ambivalence/uni_cat_sigtest/x2_Ambivalence_Gender.xlsx
+++ b/testreport/2 Ambivalence/uni_cat_sigtest/x2_Ambivalence_Gender.xlsx
@@ -402,7 +402,7 @@
         <v>0.5</v>
       </c>
       <c r="E2">
-        <v>0.758</v>
+        <v>0.718</v>
       </c>
     </row>
   </sheetData>
